--- a/medicine/Handicap/À_la_vie,_à_la_mort_(documentaire)/À_la_vie,_à_la_mort_(documentaire).xlsx
+++ b/medicine/Handicap/À_la_vie,_à_la_mort_(documentaire)/À_la_vie,_à_la_mort_(documentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_la_vie,_%C3%A0_la_mort_(documentaire)</t>
+          <t>À_la_vie,_à_la_mort_(documentaire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- À la vie, à la mort est un documentaire réalisé par Jean-Pierre Devillers et Isabelle Cottenceau[1], produit par Mireille Dumas, et diffusé sur France 3 en 2003. Il raconte la véritable histoire de Philippe Pozzo di Borgo, riche homme d'affaires devenu tétraplégique à la suite d'un accident de parapente, et de son homme à tout faire, Abdel Sellou. C'est en voyant ce documentaire que Eric Toledano et Olivier Nakache ont eu l'idée de réaliser le film Intouchables, sorti en France en 2011.
+ À la vie, à la mort est un documentaire réalisé par Jean-Pierre Devillers et Isabelle Cottenceau, produit par Mireille Dumas, et diffusé sur France 3 en 2003. Il raconte la véritable histoire de Philippe Pozzo di Borgo, riche homme d'affaires devenu tétraplégique à la suite d'un accident de parapente, et de son homme à tout faire, Abdel Sellou. C'est en voyant ce documentaire que Eric Toledano et Olivier Nakache ont eu l'idée de réaliser le film Intouchables, sorti en France en 2011.
 </t>
         </is>
       </c>
